--- a/LF/TAS/Nigeria/2023/ng_lf_tas_202304_1_site.xlsx
+++ b/LF/TAS/Nigeria/2023/ng_lf_tas_202304_1_site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Nigeria\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D571061-5B10-4B5C-9BED-1FCC1C80B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AC0A8B-A7F2-4BCA-A8F5-03973F95F9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>ng_lf_tas_202304_1_site</t>
   </si>
   <si>
-    <t>(2023 Avr) Nigeria - 1. TAS1 LF Site Form</t>
-  </si>
-  <si>
     <t>STATE</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>LUWA</t>
+  </si>
+  <si>
+    <t>(2023 Sep) Nigeria - 1. TAS1 LF Site Form</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,14 +387,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1191,10 +1191,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1"/>
       <c r="G5" s="4"/>
@@ -1204,10 +1204,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" s="4"/>
@@ -1217,10 +1217,10 @@
         <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1"/>
       <c r="G7" s="4"/>
@@ -1230,10 +1230,10 @@
         <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1"/>
       <c r="G8" s="4"/>
@@ -1243,10 +1243,10 @@
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1"/>
       <c r="G9" s="4"/>
@@ -1256,10 +1256,10 @@
         <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1"/>
       <c r="G10" s="4"/>
@@ -1269,10 +1269,10 @@
         <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1"/>
       <c r="G11" s="4"/>
@@ -1282,10 +1282,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1"/>
       <c r="G12" s="4"/>
@@ -1295,10 +1295,10 @@
         <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1"/>
       <c r="G13" s="4"/>
@@ -1308,10 +1308,10 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1"/>
       <c r="G14" s="4"/>
@@ -1328,13 +1328,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1343,13 +1343,13 @@
         <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1358,13 +1358,13 @@
         <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1373,13 +1373,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1388,13 +1388,13 @@
         <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1403,13 +1403,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1418,13 +1418,13 @@
         <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1433,13 +1433,13 @@
         <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1448,13 +1448,13 @@
         <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1463,13 +1463,13 @@
         <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1484,14 +1484,14 @@
         <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1499,14 +1499,14 @@
         <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1514,14 +1514,14 @@
         <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1529,14 +1529,14 @@
         <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1544,14 +1544,14 @@
         <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1559,14 +1559,14 @@
         <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1574,14 +1574,14 @@
         <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1589,14 +1589,14 @@
         <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1604,14 +1604,14 @@
         <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1619,14 +1619,14 @@
         <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1634,14 +1634,14 @@
         <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1649,14 +1649,14 @@
         <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1664,14 +1664,14 @@
         <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1679,14 +1679,14 @@
         <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1694,14 +1694,14 @@
         <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1709,14 +1709,14 @@
         <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1724,14 +1724,14 @@
         <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1739,14 +1739,14 @@
         <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1760,7 +1760,7 @@
         <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1788,7 +1788,7 @@
         <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1802,7 +1802,7 @@
         <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1816,7 +1816,7 @@
         <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1830,7 +1830,7 @@
         <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1844,7 +1844,7 @@
         <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1858,7 +1858,7 @@
         <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1872,7 +1872,7 @@
         <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1900,7 +1900,7 @@
         <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1928,7 +1928,7 @@
         <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1942,7 +1942,7 @@
         <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1956,7 +1956,7 @@
         <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1970,7 +1970,7 @@
         <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1984,7 +1984,7 @@
         <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1998,7 +1998,7 @@
         <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2022,7 +2022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>74</v>
@@ -2089,13 +2089,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1" ht="21">
       <c r="A1" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="20"/>
       <c r="G1" s="16" t="s">
@@ -2105,398 +2105,398 @@
         <v>73</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="19">
         <v>101</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="18">
         <v>102</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21">
       <c r="A4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="19">
         <v>103</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="18">
         <v>104</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="19">
         <v>105</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21">
       <c r="A7" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="18">
         <v>106</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="19">
         <v>107</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
       <c r="A9" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="18">
         <v>108</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="19">
         <v>109</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="18">
         <v>110</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="19">
         <v>111</v>
       </c>
       <c r="G12" s="17"/>
       <c r="I12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="18">
         <v>112</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21">
       <c r="A14" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="19">
         <v>113</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21">
       <c r="A15" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="18">
         <v>114</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21">
       <c r="A16" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="19">
         <v>115</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21">
       <c r="A17" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="18">
         <v>116</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21">
       <c r="A18" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="19">
         <v>117</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21">
       <c r="A19" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="18">
         <v>118</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
